--- a/z_data.xlsx
+++ b/z_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>login</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t># Учебный файл модуля 7. Не относится к проекту "7 самых популярных браузеров по посещаемости и товаров"</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,15 +425,18 @@
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -438,7 +444,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -446,7 +452,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -454,7 +460,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -462,7 +468,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -470,7 +476,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -478,7 +484,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -486,7 +492,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -494,7 +500,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -502,7 +508,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -510,7 +516,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
